--- a/backend/Controller/users.xlsx
+++ b/backend/Controller/users.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="8" width="10" customWidth="1"/>
@@ -450,19 +450,121 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>738</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45149.76452935185</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45149.76452935185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2214</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45149.76699842593</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45149.76699842593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>126</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45150.651708136575</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45150.651708136575</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2214</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45149.7688287037</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45149.7688287037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>748</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45150.60466329861</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45150.60466329861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>748</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45150.64422751157</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45150.64422751157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>748</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45150.64570887732</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45150.64570887732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>748</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45150.65851355324</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45150.65851355324</v>
       </c>
     </row>
   </sheetData>
